--- a/data/trans_camb/P16B01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,27</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,3; 38,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,97; 51,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 77,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,9; 26,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,53; 39,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,51; 26,61</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,18%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,58; 105,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,89; 175,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 333,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,4; 44,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,34; 74,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,24; 60,54</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,56</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,98; 17,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,65; 15,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,59; 35,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,03; 11,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 17,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,4; 3,78</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,25%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,74; 25,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,45; 20,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,86; 70,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,18; 21,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 27,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,94; 4,6</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,81</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,9; 8,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,52; 2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,81; 17,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 18,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,73; 8,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,71; 6,17</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,44%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,89; 12,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,87; 4,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,56; 26,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,83; 29,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,24; 11,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 8,57</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,96</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,92; 12,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,23; -2,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,42; 8,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,81; 12,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; 5,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,31; -1,74</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,81%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,77; 19,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,09; -6,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,8; 13,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,58; 20,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,66; 9,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,64; -2,44</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,26</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,95</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,68; 4,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,82; 0,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,94; 8,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,24; 3,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,09; 2,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,98; -2,69</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,55%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,59; 6,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,82; 0,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,68; 13,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,97; 5,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,02; 3,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,83; -3,91</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,98</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,67</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 2,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,22; -5,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,87; 7,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,43; 2,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; 2,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,38; -4,52</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,93%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,39%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,75; 2,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,68; -8,05</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 10,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,01; 3,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 3,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,36; -6,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,66</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,16</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-30,3</t>
+          <t>-15,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>-11,58</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-71,3; 38,91</t>
+          <t>-13,93; 20,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 51,91</t>
+          <t>-25,74; 14,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,3</t>
+          <t>-4,37; 32,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-72,9; 26,53</t>
+          <t>-34,83; 8,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 39,22</t>
+          <t>-6,15; 18,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 26,61</t>
+          <t>-25,14; 4,64</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,43%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-37,48%</t>
+          <t>-21,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,18%</t>
+          <t>-15,35%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,58; 105,02</t>
+          <t>-16,02; 31,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,89; 175,61</t>
+          <t>-30,67; 19,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 333,58</t>
+          <t>-4,4; 61,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 44,67</t>
+          <t>-43,05; 14,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,34; 74,85</t>
+          <t>-7,31; 28,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,24; 60,54</t>
+          <t>-30,66; 6,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-12,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,93</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,56</t>
+          <t>-4,81</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 17,46</t>
+          <t>-22,9; 8,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 15,15</t>
+          <t>-27,52; 2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 35,13</t>
+          <t>-13,81; 17,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 11,9</t>
+          <t>-10,94; 18,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 17,89</t>
+          <t>-13,73; 8,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 3,78</t>
+          <t>-15,71; 6,17</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,75%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,21%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,25%</t>
+          <t>-6,44%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 25,22</t>
+          <t>-28,89; 12,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 20,62</t>
+          <t>-33,87; 4,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 70,08</t>
+          <t>-16,56; 26,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 21,81</t>
+          <t>-12,83; 29,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 27,23</t>
+          <t>-17,24; 11,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 4,6</t>
+          <t>-19,8; 8,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,92</t>
+          <t>-27,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-15,96</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 8,42</t>
+          <t>-22,92; 12,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 2,79</t>
+          <t>-45,23; -2,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 17,0</t>
+          <t>-24,42; 8,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 18,77</t>
+          <t>-23,81; 12,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 8,31</t>
+          <t>-19,73; 5,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 6,17</t>
+          <t>-30,31; -1,74</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,53%</t>
+          <t>-37,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>-12,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>-7,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-21,81%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 12,57</t>
+          <t>-27,77; 19,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 4,09</t>
+          <t>-57,09; -6,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 26,61</t>
+          <t>-30,8; 13,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 29,64</t>
+          <t>-29,58; 20,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 11,79</t>
+          <t>-24,66; 9,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 8,57</t>
+          <t>-37,64; -2,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-10,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-27,1</t>
+          <t>-15,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,25</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-11,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,28</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,96</t>
+          <t>-12,95</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 12,09</t>
+          <t>-23,68; 4,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-45,23; -2,78</t>
+          <t>-29,82; 0,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 8,4</t>
+          <t>-17,94; 8,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 12,53</t>
+          <t>-25,24; 3,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 5,98</t>
+          <t>-16,09; 2,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -1,74</t>
+          <t>-22,98; -2,69</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>-13,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-37,19%</t>
+          <t>-19,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,83%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,95%</t>
+          <t>-9,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,81%</t>
+          <t>-17,55%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 19,26</t>
+          <t>-28,59; 6,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,09; -6,2</t>
+          <t>-35,82; 0,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 13,56</t>
+          <t>-23,68; 13,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 20,09</t>
+          <t>-32,97; 5,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 9,21</t>
+          <t>-21,02; 3,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,64; -2,44</t>
+          <t>-29,83; -3,91</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-10,16</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-15,24</t>
+          <t>-14,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-11,26</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,95</t>
+          <t>-10,67</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 4,44</t>
+          <t>-13,8; 2,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 0,63</t>
+          <t>-24,22; -5,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 8,72</t>
+          <t>-8,87; 7,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 3,61</t>
+          <t>-14,43; 2,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 2,88</t>
+          <t>-9,03; 2,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,98; -2,69</t>
+          <t>-16,38; -4,52</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-13,17%</t>
+          <t>-7,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-19,77%</t>
+          <t>-19,93%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,55%</t>
+          <t>-14,39%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 6,24</t>
+          <t>-17,75; 2,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 0,76</t>
+          <t>-30,68; -8,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 13,2</t>
+          <t>-11,42; 10,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 5,79</t>
+          <t>-19,01; 3,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 3,86</t>
+          <t>-11,76; 3,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -3,91</t>
+          <t>-21,36; -6,41</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-5,75</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-14,98</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-6,68</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-10,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-13,8; 2,27</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-24,22; -5,84</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-8,87; 7,23</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; 2,42</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-9,03; 2,48</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-16,38; -4,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-7,65%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-19,93%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-9,14%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-4,67%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-14,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-17,75; 2,86</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-30,68; -8,05</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-11,42; 10,52</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-19,01; 3,34</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-11,76; 3,42</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-21,36; -6,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B01-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 20,13</t>
+          <t>-13,04; 20,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 14,01</t>
+          <t>-23,74; 15,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 32,03</t>
+          <t>-4,74; 32,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 8,92</t>
+          <t>-35,97; 6,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 18,8</t>
+          <t>-6,43; 17,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 4,64</t>
+          <t>-25,3; 5,12</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 31,22</t>
+          <t>-15,26; 30,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 19,84</t>
+          <t>-27,88; 23,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 61,2</t>
+          <t>-5,52; 58,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 14,22</t>
+          <t>-43,69; 10,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 28,11</t>
+          <t>-6,92; 27,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 6,72</t>
+          <t>-30,67; 7,62</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 8,42</t>
+          <t>-23,23; 7,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 2,79</t>
+          <t>-29,21; 2,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 17,0</t>
+          <t>-14,44; 16,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 18,77</t>
+          <t>-12,22; 18,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 8,31</t>
+          <t>-14,21; 6,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 6,17</t>
+          <t>-15,15; 5,28</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 12,57</t>
+          <t>-29,54; 12,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 4,09</t>
+          <t>-36,1; 2,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 26,61</t>
+          <t>-17,59; 24,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 29,64</t>
+          <t>-14,72; 29,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 11,79</t>
+          <t>-17,85; 10,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 8,57</t>
+          <t>-19,34; 7,67</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 12,09</t>
+          <t>-22,63; 12,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-45,23; -2,78</t>
+          <t>-44,58; -5,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 8,4</t>
+          <t>-25,24; 9,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 12,53</t>
+          <t>-22,98; 12,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 5,98</t>
+          <t>-19,69; 4,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -1,74</t>
+          <t>-30,73; -1,37</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 19,26</t>
+          <t>-27,48; 20,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,09; -6,2</t>
+          <t>-56,28; -9,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 13,56</t>
+          <t>-31,59; 16,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,58; 20,09</t>
+          <t>-29,23; 20,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 9,21</t>
+          <t>-24,69; 6,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,64; -2,44</t>
+          <t>-38,67; -2,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 4,44</t>
+          <t>-25,29; 4,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 0,63</t>
+          <t>-29,23; 0,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 8,72</t>
+          <t>-18,46; 8,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 3,61</t>
+          <t>-25,97; 2,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 2,88</t>
+          <t>-16,95; 2,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,98; -2,69</t>
+          <t>-22,26; -1,97</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 6,24</t>
+          <t>-30,51; 5,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 0,76</t>
+          <t>-35,82; -1,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 13,2</t>
+          <t>-23,71; 12,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 5,79</t>
+          <t>-33,36; 3,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 3,86</t>
+          <t>-21,95; 3,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -3,91</t>
+          <t>-29,6; -3,12</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 2,27</t>
+          <t>-13,35; 2,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-24,22; -5,84</t>
+          <t>-23,84; -6,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 7,23</t>
+          <t>-9,07; 7,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 2,42</t>
+          <t>-15,14; 1,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 2,48</t>
+          <t>-8,93; 1,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,38; -4,52</t>
+          <t>-16,66; -5,09</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 2,86</t>
+          <t>-17,31; 2,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,68; -8,05</t>
+          <t>-30,02; -9,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 10,52</t>
+          <t>-11,87; 10,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 3,34</t>
+          <t>-19,95; 2,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 3,42</t>
+          <t>-11,52; 2,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -6,41</t>
+          <t>-21,49; -7,03</t>
         </is>
       </c>
     </row>
